--- a/scripts/pre_preprocessed_ONGOING/info_original_datasets.xlsx
+++ b/scripts/pre_preprocessed_ONGOING/info_original_datasets.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\scripts\pre_preprocessed_ONGOING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1582861D-3279-4FB4-9D3B-5EA3CC1876A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09655ACC-0474-4DC6-9FA4-7F18DD2247CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{D90B3C00-3DFA-4F73-8988-762800ADCE82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D90B3C00-3DFA-4F73-8988-762800ADCE82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Needed info" sheetId="4" r:id="rId1"/>
-    <sheet name="Needed info_RESERVA" sheetId="1" r:id="rId2"/>
-    <sheet name="all_info" sheetId="2" r:id="rId3"/>
-    <sheet name="readme" sheetId="3" r:id="rId4"/>
+    <sheet name="Needed info_RESERVA" sheetId="1" r:id="rId1"/>
+    <sheet name="all_info" sheetId="2" r:id="rId2"/>
+    <sheet name="readme" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="576">
   <si>
     <t>dataset</t>
   </si>
@@ -1746,6 +1745,18 @@
   </si>
   <si>
     <t>IRB_CYP2C19inh_DeepPK</t>
+  </si>
+  <si>
+    <t>DeppPK_fdamdd_reg_all.csv</t>
+  </si>
+  <si>
+    <t>TOX_MRDD_DeepPK</t>
+  </si>
+  <si>
+    <t>TOX</t>
+  </si>
+  <si>
+    <t>log(mg/kg/day)</t>
   </si>
 </sst>
 </file>
@@ -2369,334 +2380,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A763784-E2F7-4E79-AE2C-AC3B4BD646AE}">
-  <dimension ref="A1:AA6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="37.5">
-      <c r="A1" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" ht="18.75">
-      <c r="A3" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" ht="18.75">
-      <c r="A4" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7C953B-D8D2-4E2A-8385-F60286660B13}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.42578125" defaultRowHeight="18.75"/>
@@ -3754,9 +3443,7 @@
       <c r="D21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E21" s="14"/>
       <c r="F21" s="27" t="s">
         <v>26</v>
       </c>
@@ -3813,9 +3500,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
         <v>26</v>
       </c>
@@ -3873,9 +3558,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
         <v>26</v>
       </c>
@@ -3937,9 +3620,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
         <v>26</v>
       </c>
@@ -3999,9 +3680,7 @@
       <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="27" t="s">
         <v>26</v>
       </c>
@@ -5757,7 +5436,40 @@
       </c>
     </row>
     <row r="66" spans="1:23">
+      <c r="A66" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="O66"/>
+      <c r="T66" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5765,7 +5477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E616792-10A9-4211-A782-0AC2226CFB4B}">
   <dimension ref="A1:U46"/>
   <sheetViews>
@@ -8301,12 +8013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026E883-5A86-496E-8610-33338E970ECC}">
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
